--- a/data/case1/13/Q2_13.xlsx
+++ b/data/case1/13/Q2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.095173910376558979</v>
+        <v>0.08840041403804122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999318911534</v>
+        <v>-0.0059999999373196999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999471511671</v>
+        <v>-0.0039999999507749351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999001962863</v>
+        <v>-0.0079999999073017136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999548158129</v>
+        <v>-0.0029999999572760672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999624573661</v>
+        <v>-0.0019999999636208798</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.009999999872304155</v>
+        <v>-0.0099999998807502877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.009999999874360288</v>
+        <v>-0.0099999998814923607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999699824578</v>
+        <v>-0.0019999999668072199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999758955056</v>
+        <v>-0.001999999970028199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.042662409889360653</v>
+        <v>-0.00299999995986866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999586555752</v>
+        <v>0.019696238628236884</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999551317273</v>
+        <v>-0.0034999999574969465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999036459712</v>
+        <v>-0.0079999999120294873</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998254585165</v>
+        <v>-0.00099999998613320429</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999714697125</v>
+        <v>0.023623603795394743</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999724324979</v>
+        <v>-0.0019999999768209875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0063293421989918386</v>
+        <v>-0.0039999999557762678</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999540931697</v>
+        <v>-0.0039999999578399503</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999499240602</v>
+        <v>0.0092816714294396974</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.003999999949296118</v>
+        <v>-0.0039999999571271871</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999488831151</v>
+        <v>-0.0039999999567061906</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.004999999931549759</v>
+        <v>-0.0049999999370760051</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999754396036</v>
+        <v>-0.019999999774841903</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999750688779</v>
+        <v>-0.01999999977139133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999565089581</v>
+        <v>-0.0024999999579815579</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999557753227</v>
+        <v>-0.0024999999574473186</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999584854322</v>
+        <v>-0.0019999999602404728</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999008354408</v>
+        <v>-0.0069999999074861208</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999303703255</v>
+        <v>-0.059999999360835332</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999150347492</v>
+        <v>0.054754065990914924</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.073825541888528079</v>
+        <v>0.012282450002768286</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.003999999953189004</v>
+        <v>-0.0039999999519508833</v>
       </c>
     </row>
   </sheetData>
